--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree_4_3_jeongsu_2_x.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.4 orgtree/orgtree_4_3_jeongsu_2_x.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.4 orgtree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE3FFE-07AE-4D51-82D8-41BD7B9AB76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B2D419-2121-4D52-8400-4B3EEE533E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4538,15 +4538,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I196" sqref="I196"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.08984375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" style="5" customWidth="1"/>
     <col min="4" max="7" width="2.54296875" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" style="5" customWidth="1"/>
     <col min="9" max="10" width="33.36328125" style="6" customWidth="1"/>
